--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.798899999999999</v>
+        <v>6.023199999999997</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.29090000000003</v>
+        <v>-21.45310000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.813300000000001</v>
+        <v>5.020500000000002</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.49319999999998</v>
+        <v>-20.47839999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.17850000000002</v>
+        <v>-21.40740000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>5.565200000000001</v>
+        <v>5.4681</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.34340000000001</v>
+        <v>-21.02879999999999</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.20610000000002</v>
+        <v>-21.39700000000003</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.37820000000004</v>
+        <v>-22.37090000000004</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
